--- a/src/assets/zxsj_mb/sjzxtb_k10_glryxx.xlsx
+++ b/src/assets/zxsj_mb/sjzxtb_k10_glryxx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>年度</t>
   </si>
@@ -52,130 +52,82 @@
     <t>入职年月</t>
   </si>
   <si>
-    <t>nd</t>
-  </si>
-  <si>
-    <t>xm</t>
-  </si>
-  <si>
-    <t>zgh</t>
-  </si>
-  <si>
-    <t>birdate</t>
-  </si>
-  <si>
-    <t>xb</t>
-  </si>
-  <si>
-    <t>zglx</t>
-  </si>
-  <si>
-    <t>szbm</t>
-  </si>
-  <si>
-    <t>zyjszw</t>
-  </si>
-  <si>
-    <t>xl</t>
-  </si>
-  <si>
-    <t>xw</t>
-  </si>
-  <si>
-    <t>gzzw</t>
-  </si>
-  <si>
-    <t>rzny</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>1973-08-08</t>
+    <t>殷**</t>
+  </si>
+  <si>
+    <t>1973-08-09</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>B行政管理人员</t>
+  </si>
+  <si>
+    <t>校长室</t>
+  </si>
+  <si>
+    <t>高级教师（中学）</t>
+  </si>
+  <si>
+    <t>本科</t>
+  </si>
+  <si>
+    <t>硕士</t>
+  </si>
+  <si>
+    <t>副校长</t>
+  </si>
+  <si>
+    <t>2013-08-09</t>
+  </si>
+  <si>
+    <t>赵**</t>
+  </si>
+  <si>
+    <t>1973-08-10</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
+    <t>C技术人员</t>
+  </si>
+  <si>
+    <t>信息技术服务中心</t>
+  </si>
+  <si>
+    <t>副高级（副教授）</t>
+  </si>
+  <si>
+    <t>信息中心副主任</t>
+  </si>
+  <si>
+    <t>2013-08-10</t>
+  </si>
+  <si>
+    <t>钟**</t>
+  </si>
+  <si>
+    <t>1973-08-11</t>
+  </si>
+  <si>
+    <t>中级（讲师）</t>
+  </si>
+  <si>
+    <t>教师</t>
+  </si>
+  <si>
+    <t>2013-08-11</t>
+  </si>
+  <si>
+    <t>周**</t>
+  </si>
+  <si>
+    <t>1973-08-12</t>
+  </si>
+  <si>
     <t>A教学管理与服务人员</t>
-  </si>
-  <si>
-    <t>学历教育部</t>
-  </si>
-  <si>
-    <t>副高级（副教授）</t>
-  </si>
-  <si>
-    <t>本科</t>
-  </si>
-  <si>
-    <t>硕士</t>
-  </si>
-  <si>
-    <t>信息中心副主任</t>
-  </si>
-  <si>
-    <t>2013-08-08</t>
-  </si>
-  <si>
-    <t>殷**</t>
-  </si>
-  <si>
-    <t>1973-08-09</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>B行政管理人员</t>
-  </si>
-  <si>
-    <t>校长室</t>
-  </si>
-  <si>
-    <t>高级教师（中学）</t>
-  </si>
-  <si>
-    <t>副校长</t>
-  </si>
-  <si>
-    <t>2013-08-09</t>
-  </si>
-  <si>
-    <t>赵**</t>
-  </si>
-  <si>
-    <t>1973-08-10</t>
-  </si>
-  <si>
-    <t>C技术人员</t>
-  </si>
-  <si>
-    <t>信息技术服务中心</t>
-  </si>
-  <si>
-    <t>2013-08-10</t>
-  </si>
-  <si>
-    <t>钟**</t>
-  </si>
-  <si>
-    <t>1973-08-11</t>
-  </si>
-  <si>
-    <t>中级（讲师）</t>
-  </si>
-  <si>
-    <t>教师</t>
-  </si>
-  <si>
-    <t>2013-08-11</t>
-  </si>
-  <si>
-    <t>周**</t>
-  </si>
-  <si>
-    <t>1973-08-12</t>
   </si>
   <si>
     <t>课程教学管理中心</t>
@@ -218,7 +170,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +206,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -262,13 +221,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -276,8 +252,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,47 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +299,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,32 +321,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,67 +351,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,109 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +557,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -629,47 +583,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,11 +611,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,152 +656,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,13 +811,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,13 +1139,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="6.91666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.16666666666667" customWidth="1"/>
@@ -1256,270 +1198,194 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="23" customHeight="1" spans="1:12">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="25" customHeight="1" spans="1:12">
+      <c r="A2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>2222</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:12">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3333</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
-        <v>1111</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:12">
       <c r="A4" s="1">
         <v>2019</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4444</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2222</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:12">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="1">
-        <v>3333</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>46</v>
+        <v>5555</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:12">
       <c r="A6" s="1">
         <v>2019</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6666</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4444</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:12">
-      <c r="A7" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5555</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:12">
-      <c r="A8" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6666</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/zxsj_mb/sjzxtb_k10_glryxx.xlsx
+++ b/src/assets/zxsj_mb/sjzxtb_k10_glryxx.xlsx
@@ -170,7 +170,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,17 +179,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -207,7 +221,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +267,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,92 +319,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,13 +359,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,25 +479,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,127 +509,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,39 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,23 +586,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,6 +617,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -659,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,153 +685,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,14 +1159,14 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="6.91666666666667" customWidth="1"/>
-    <col min="2" max="2" width="6.16666666666667" customWidth="1"/>
-    <col min="3" max="3" width="5.91666666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="12.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="20.1666666666667" customWidth="1"/>
@@ -1199,192 +1216,192 @@
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:12">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>2019</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>2222</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:12">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2019</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>3333</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:12">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>2019</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>4444</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:12">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>2019</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>5555</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:12">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>2019</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>6666</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>47</v>
       </c>
     </row>
